--- a/outputs-r202/o__RFP12.xlsx
+++ b/outputs-r202/o__RFP12.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>f__UBA1067</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>f__UBA1067</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>f__UBA1067</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>f__UBA1067</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>f__UBA1067</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>f__UBA1067</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -557,6 +577,11 @@
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>f__UBA1067</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>f__UBA1067</t>
         </is>

--- a/outputs-r202/o__RFP12.xlsx
+++ b/outputs-r202/o__RFP12.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,35 +558,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG673.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>f__UBA1067</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>f__UBA1067</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
